--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -1010,25 +1010,25 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6883116883116883</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L12">
         <v>159</v>
       </c>
       <c r="M12">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1062,25 +1062,25 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.600609756097561</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L14">
         <v>197</v>
       </c>
       <c r="M14">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17">
